--- a/Data/movies_test.xlsx
+++ b/Data/movies_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,6 +614,11 @@
           <t>Genre_Horror</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Oscar Winners</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -724,6 +729,7 @@
       <c r="AJ2" t="b">
         <v>0</v>
       </c>
+      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,7 @@
       <c r="AJ3" t="b">
         <v>0</v>
       </c>
+      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +951,7 @@
       <c r="AJ4" t="b">
         <v>0</v>
       </c>
+      <c r="AK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1054,6 +1062,7 @@
       <c r="AJ5" t="b">
         <v>0</v>
       </c>
+      <c r="AK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1173,7 @@
       <c r="AJ6" t="b">
         <v>0</v>
       </c>
+      <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1274,6 +1284,7 @@
       <c r="AJ7" t="b">
         <v>0</v>
       </c>
+      <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1395,7 @@
       <c r="AJ8" t="b">
         <v>0</v>
       </c>
+      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1494,6 +1506,7 @@
       <c r="AJ9" t="b">
         <v>0</v>
       </c>
+      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1604,6 +1617,7 @@
       <c r="AJ10" t="b">
         <v>0</v>
       </c>
+      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1714,6 +1728,7 @@
       <c r="AJ11" t="b">
         <v>0</v>
       </c>
+      <c r="AK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1839,7 @@
       <c r="AJ12" t="b">
         <v>0</v>
       </c>
+      <c r="AK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1934,6 +1950,7 @@
       <c r="AJ13" t="b">
         <v>0</v>
       </c>
+      <c r="AK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2044,6 +2061,7 @@
       <c r="AJ14" t="b">
         <v>0</v>
       </c>
+      <c r="AK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2154,6 +2172,7 @@
       <c r="AJ15" t="b">
         <v>0</v>
       </c>
+      <c r="AK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2264,6 +2283,7 @@
       <c r="AJ16" t="b">
         <v>0</v>
       </c>
+      <c r="AK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2374,6 +2394,7 @@
       <c r="AJ17" t="b">
         <v>0</v>
       </c>
+      <c r="AK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2484,6 +2505,7 @@
       <c r="AJ18" t="b">
         <v>0</v>
       </c>
+      <c r="AK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2594,6 +2616,7 @@
       <c r="AJ19" t="b">
         <v>0</v>
       </c>
+      <c r="AK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2704,6 +2727,7 @@
       <c r="AJ20" t="b">
         <v>0</v>
       </c>
+      <c r="AK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2814,6 +2838,7 @@
       <c r="AJ21" t="b">
         <v>0</v>
       </c>
+      <c r="AK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2924,6 +2949,7 @@
       <c r="AJ22" t="b">
         <v>0</v>
       </c>
+      <c r="AK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3034,6 +3060,7 @@
       <c r="AJ23" t="b">
         <v>0</v>
       </c>
+      <c r="AK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3171,7 @@
       <c r="AJ24" t="b">
         <v>1</v>
       </c>
+      <c r="AK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3254,6 +3282,7 @@
       <c r="AJ25" t="b">
         <v>0</v>
       </c>
+      <c r="AK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3364,6 +3393,7 @@
       <c r="AJ26" t="b">
         <v>0</v>
       </c>
+      <c r="AK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3474,6 +3504,7 @@
       <c r="AJ27" t="b">
         <v>1</v>
       </c>
+      <c r="AK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3584,6 +3615,7 @@
       <c r="AJ28" t="b">
         <v>0</v>
       </c>
+      <c r="AK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3694,6 +3726,7 @@
       <c r="AJ29" t="b">
         <v>0</v>
       </c>
+      <c r="AK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3804,6 +3837,7 @@
       <c r="AJ30" t="b">
         <v>0</v>
       </c>
+      <c r="AK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3914,6 +3948,7 @@
       <c r="AJ31" t="b">
         <v>0</v>
       </c>
+      <c r="AK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4024,6 +4059,7 @@
       <c r="AJ32" t="b">
         <v>0</v>
       </c>
+      <c r="AK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4134,6 +4170,7 @@
       <c r="AJ33" t="b">
         <v>0</v>
       </c>
+      <c r="AK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4244,6 +4281,7 @@
       <c r="AJ34" t="b">
         <v>0</v>
       </c>
+      <c r="AK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4354,6 +4392,7 @@
       <c r="AJ35" t="b">
         <v>0</v>
       </c>
+      <c r="AK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4464,6 +4503,7 @@
       <c r="AJ36" t="b">
         <v>0</v>
       </c>
+      <c r="AK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4574,6 +4614,7 @@
       <c r="AJ37" t="b">
         <v>0</v>
       </c>
+      <c r="AK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4684,6 +4725,7 @@
       <c r="AJ38" t="b">
         <v>0</v>
       </c>
+      <c r="AK38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4794,6 +4836,7 @@
       <c r="AJ39" t="b">
         <v>0</v>
       </c>
+      <c r="AK39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4904,6 +4947,7 @@
       <c r="AJ40" t="b">
         <v>0</v>
       </c>
+      <c r="AK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5014,6 +5058,7 @@
       <c r="AJ41" t="b">
         <v>0</v>
       </c>
+      <c r="AK41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5124,6 +5169,7 @@
       <c r="AJ42" t="b">
         <v>0</v>
       </c>
+      <c r="AK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5234,6 +5280,7 @@
       <c r="AJ43" t="b">
         <v>0</v>
       </c>
+      <c r="AK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5344,6 +5391,7 @@
       <c r="AJ44" t="b">
         <v>0</v>
       </c>
+      <c r="AK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5454,6 +5502,7 @@
       <c r="AJ45" t="b">
         <v>0</v>
       </c>
+      <c r="AK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5564,6 +5613,7 @@
       <c r="AJ46" t="b">
         <v>0</v>
       </c>
+      <c r="AK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5674,6 +5724,7 @@
       <c r="AJ47" t="b">
         <v>0</v>
       </c>
+      <c r="AK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5784,6 +5835,7 @@
       <c r="AJ48" t="b">
         <v>0</v>
       </c>
+      <c r="AK48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5894,6 +5946,7 @@
       <c r="AJ49" t="b">
         <v>0</v>
       </c>
+      <c r="AK49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6004,6 +6057,7 @@
       <c r="AJ50" t="b">
         <v>0</v>
       </c>
+      <c r="AK50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6114,6 +6168,7 @@
       <c r="AJ51" t="b">
         <v>0</v>
       </c>
+      <c r="AK51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
